--- a/Risk Driver Simulation/Runfiles/MCDetails.xlsx
+++ b/Risk Driver Simulation/Runfiles/MCDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369381A-0062-4FB3-8B06-1528455EFB32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C170C1D-CFAD-400D-86DF-4058AE95A283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Risk Driver Simulation/Runfiles/MCDetails.xlsx
+++ b/Risk Driver Simulation/Runfiles/MCDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C170C1D-CFAD-400D-86DF-4058AE95A283}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3D591-EB30-4C96-8C27-11EA09554AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Valuation Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>SimAmount</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>correlationmatrix</t>
   </si>
 </sst>
 </file>
@@ -371,19 +377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,24 +397,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43830</v>
       </c>
       <c r="B2" s="1">
         <v>47583</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>100</v>
+      <c r="E2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +432,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
